--- a/Gangbuk_edit2/Seongbukgu_edit2.xlsx
+++ b/Gangbuk_edit2/Seongbukgu_edit2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimyihwan\OneDrive - kaist.ac.kr\Prokim\web scraping\Gangbuk_edit2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_A57A3F84A307F5CAE2170B19535AC1C3502C3E0E" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E479568B-FF30-4625-9227-A2114DC623C6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edit2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -274,18 +280,9 @@
     <t>SK</t>
   </si>
   <si>
-    <t>대우</t>
-  </si>
-  <si>
     <t>동신</t>
   </si>
   <si>
-    <t>래미안월곡1차</t>
-  </si>
-  <si>
-    <t>정릉e편한세상</t>
-  </si>
-  <si>
     <t>길음뉴타운8단지(래미안)</t>
   </si>
   <si>
@@ -1313,17 +1310,29 @@
   </si>
   <si>
     <t>70세대</t>
+  </si>
+  <si>
+    <t>정릉대우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>래미안월곡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정릉e-편한세상1차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1331,8 +1340,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1378,15 +1394,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1428,7 +1452,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1460,9 +1484,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1494,6 +1536,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1669,14 +1729,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1906,7 +1971,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1923,7 +1988,7 @@
         <v>1999.04</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>26</v>
       </c>
@@ -1931,7 +1996,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>430</v>
       </c>
       <c r="D3">
         <v>283</v>
@@ -1940,10 +2005,10 @@
         <v>2001.06</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>36</v>
       </c>
@@ -1951,7 +2016,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4">
         <v>380</v>
@@ -1960,7 +2025,7 @@
         <v>1998.07</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>46</v>
       </c>
@@ -1968,7 +2033,7 @@
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>431</v>
       </c>
       <c r="D5">
         <v>796</v>
@@ -1977,61 +2042,61 @@
         <v>2006.07</v>
       </c>
       <c r="R5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="T5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="U5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="V5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="W5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="X5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Y5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Z5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AA5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AB5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AC5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AD5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AE5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AF5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AH5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AI5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>86</v>
       </c>
@@ -2039,7 +2104,7 @@
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>432</v>
       </c>
       <c r="D6">
         <v>196</v>
@@ -2048,79 +2113,79 @@
         <v>2006.06</v>
       </c>
       <c r="R6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="T6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="U6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="V6" t="s">
+        <v>196</v>
+      </c>
+      <c r="W6" t="s">
         <v>199</v>
       </c>
-      <c r="W6" t="s">
-        <v>202</v>
-      </c>
       <c r="X6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Y6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Z6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AA6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AB6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO6" t="s">
         <v>199</v>
       </c>
-      <c r="AC6" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>264</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>272</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>199</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>202</v>
-      </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -2128,7 +2193,7 @@
         <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>268</v>
@@ -2137,223 +2202,223 @@
         <v>2010.06</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O7">
         <v>26159</v>
       </c>
       <c r="P7">
-        <v>37.607206</v>
+        <v>37.607205999999998</v>
       </c>
       <c r="Q7">
-        <v>127.019484</v>
+        <v>127.01948400000001</v>
       </c>
       <c r="R7" t="s">
+        <v>170</v>
+      </c>
+      <c r="S7" t="s">
+        <v>182</v>
+      </c>
+      <c r="T7" t="s">
+        <v>193</v>
+      </c>
+      <c r="U7" t="s">
+        <v>194</v>
+      </c>
+      <c r="V7" t="s">
+        <v>196</v>
+      </c>
+      <c r="W7" t="s">
+        <v>200</v>
+      </c>
+      <c r="X7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD7" t="s">
         <v>173</v>
       </c>
-      <c r="S7" t="s">
-        <v>185</v>
-      </c>
-      <c r="T7" t="s">
-        <v>196</v>
-      </c>
-      <c r="U7" t="s">
-        <v>197</v>
-      </c>
-      <c r="V7" t="s">
-        <v>199</v>
-      </c>
-      <c r="W7" t="s">
-        <v>203</v>
-      </c>
-      <c r="X7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>176</v>
-      </c>
       <c r="AE7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AF7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AG7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AH7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AI7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AJ7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AK7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AL7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AM7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AN7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AO7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AP7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AQ7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AR7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AS7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AT7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AU7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AV7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AW7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AX7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AY7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AZ7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BA7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="BB7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="BC7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="BD7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BE7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BF7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BG7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="BH7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="BI7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="BJ7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BK7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BL7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BM7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="BN7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="BO7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="BP7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="BQ7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BR7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BS7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="BT7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="BU7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="BV7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="BW7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BX7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BY7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>22</v>
       </c>
@@ -2361,7 +2426,7 @@
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>28</v>
@@ -2370,223 +2435,223 @@
         <v>1972.11</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O8">
         <v>1184</v>
       </c>
       <c r="P8">
-        <v>37.5825</v>
+        <v>37.582500000000003</v>
       </c>
       <c r="Q8">
         <v>127.02504</v>
       </c>
       <c r="R8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="S8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="T8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="V8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="W8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="X8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Z8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AA8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AB8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AC8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AD8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AE8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AF8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AG8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AH8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AI8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AJ8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AK8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AL8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AM8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AN8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AO8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AP8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AQ8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AR8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AS8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AT8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AU8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AV8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AW8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AX8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AY8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AZ8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BA8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="BB8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="BC8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="BD8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BE8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="BF8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BG8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="BH8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="BI8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="BJ8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BK8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="BL8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BM8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="BN8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="BO8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="BP8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BQ8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="BR8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BS8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="BT8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="BU8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="BV8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BW8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="BX8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BY8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>41</v>
       </c>
@@ -2594,7 +2659,7 @@
         <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D9">
         <v>565</v>
@@ -2603,223 +2668,223 @@
         <v>2019.02</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O9">
         <v>111330</v>
       </c>
       <c r="P9">
-        <v>37.611627</v>
+        <v>37.611626999999999</v>
       </c>
       <c r="Q9">
-        <v>127.027156</v>
+        <v>127.02715600000001</v>
       </c>
       <c r="R9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="S9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="T9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="U9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="V9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="W9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="X9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Y9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Z9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AA9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AB9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AC9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AD9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AE9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AF9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AG9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AH9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AI9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AJ9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AK9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AL9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AM9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AN9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AO9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AP9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AQ9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AR9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AS9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AT9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AU9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AV9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AW9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AX9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AY9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AZ9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BA9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="BB9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="BC9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="BD9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BE9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BF9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BG9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="BH9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="BI9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="BJ9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BK9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BL9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BM9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="BN9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="BO9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="BP9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BQ9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BR9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BS9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="BT9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="BU9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="BV9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BW9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BX9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BY9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44</v>
       </c>
@@ -2827,7 +2892,7 @@
         <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>171</v>
@@ -2836,223 +2901,223 @@
         <v>2019.02</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O10">
         <v>114972</v>
       </c>
       <c r="P10">
-        <v>37.606168</v>
+        <v>37.606167999999997</v>
       </c>
       <c r="Q10">
         <v>127.063518</v>
       </c>
       <c r="R10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="T10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="U10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="V10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="W10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="X10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Y10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Z10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AA10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AB10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AC10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AD10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AE10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AF10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AG10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AH10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AI10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AJ10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AK10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AL10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AM10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AN10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AO10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AP10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AQ10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AR10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AS10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AT10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AU10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AV10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AW10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AX10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AY10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AZ10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BA10" t="s">
+        <v>339</v>
+      </c>
+      <c r="BB10" t="s">
         <v>342</v>
       </c>
-      <c r="BB10" t="s">
-        <v>345</v>
-      </c>
       <c r="BC10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="BD10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BE10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BF10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BG10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="BH10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="BI10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="BJ10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BK10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BL10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BM10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="BN10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="BO10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="BP10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BQ10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BR10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BS10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="BT10" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="BU10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="BV10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="BW10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BX10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BY10" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>50</v>
       </c>
@@ -3060,7 +3125,7 @@
         <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>202</v>
@@ -3069,223 +3134,223 @@
         <v>1998.12</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O11">
         <v>578</v>
       </c>
       <c r="P11">
-        <v>37.603392</v>
+        <v>37.603391999999999</v>
       </c>
       <c r="Q11">
         <v>127.027879</v>
       </c>
       <c r="R11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="S11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="T11" t="s">
+        <v>194</v>
+      </c>
+      <c r="U11" t="s">
+        <v>195</v>
+      </c>
+      <c r="V11" t="s">
         <v>197</v>
       </c>
-      <c r="U11" t="s">
-        <v>198</v>
-      </c>
-      <c r="V11" t="s">
-        <v>200</v>
-      </c>
       <c r="W11" t="s">
+        <v>204</v>
+      </c>
+      <c r="X11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>290</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>297</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>322</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>332</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>340</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>345</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>194</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>196</v>
+      </c>
+      <c r="BG11" t="s">
         <v>207</v>
       </c>
-      <c r="X11" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>268</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>276</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>284</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>293</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>309</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>196</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>242</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>325</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>335</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>195</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>199</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>343</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>348</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>356</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>197</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>199</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>210</v>
-      </c>
       <c r="BH11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="BI11" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="BJ11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="BK11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BL11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BM11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="BN11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="BO11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="BP11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="BQ11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BR11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BS11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="BT11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="BU11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="BV11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="BW11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BX11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BY11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>52</v>
       </c>
@@ -3293,7 +3358,7 @@
         <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12">
         <v>71</v>
@@ -3302,223 +3367,223 @@
         <v>2017.01</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O12">
         <v>109051</v>
       </c>
       <c r="P12">
-        <v>37.580271</v>
+        <v>37.580271000000003</v>
       </c>
       <c r="Q12">
         <v>127.018895</v>
       </c>
       <c r="R12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="S12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="V12" t="s">
+        <v>196</v>
+      </c>
+      <c r="W12" t="s">
+        <v>205</v>
+      </c>
+      <c r="X12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI12" t="s">
         <v>199</v>
       </c>
-      <c r="W12" t="s">
-        <v>208</v>
-      </c>
-      <c r="X12" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>259</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>202</v>
-      </c>
       <c r="AJ12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AK12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AL12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AM12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AN12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AO12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AP12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AQ12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AR12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AS12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AT12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AU12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AV12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AW12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AX12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AY12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AZ12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BA12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="BB12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="BC12" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BD12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BE12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BF12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BG12" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="BH12" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="BI12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="BJ12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BK12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BL12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BM12" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="BN12" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="BO12" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="BP12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BQ12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BR12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BS12" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="BT12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="BU12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="BV12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BW12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BX12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BY12" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>58</v>
       </c>
@@ -3526,7 +3591,7 @@
         <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13">
         <v>120</v>
@@ -3535,31 +3600,31 @@
         <v>2012.05</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O13">
         <v>103375</v>
@@ -3568,190 +3633,190 @@
         <v>37.587035</v>
       </c>
       <c r="Q13">
-        <v>127.011536</v>
+        <v>127.01153600000001</v>
       </c>
       <c r="R13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="T13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="U13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="V13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="W13" t="s">
+        <v>206</v>
+      </c>
+      <c r="X13" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>269</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>315</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>324</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>334</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>347</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>355</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>194</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>196</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>360</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>376</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>194</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>196</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>384</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>392</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>400</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>192</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>194</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>196</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>406</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>413</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>422</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>192</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>194</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>196</v>
+      </c>
+      <c r="BY13" t="s">
         <v>209</v>
       </c>
-      <c r="X13" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>269</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>277</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>286</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>199</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>295</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>272</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>311</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>196</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>199</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>318</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>327</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>337</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>196</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>197</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>199</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>344</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>350</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>358</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>197</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>199</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>363</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>370</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>379</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>195</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>197</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>387</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>395</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>403</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>195</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>197</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>199</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>409</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>416</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>425</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>195</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>197</v>
-      </c>
-      <c r="BX13" t="s">
-        <v>199</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>212</v>
-      </c>
     </row>
-    <row r="14" spans="1:77">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>63</v>
       </c>
@@ -3759,7 +3824,7 @@
         <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>40</v>
@@ -3768,205 +3833,205 @@
         <v>1983.06</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M14" t="s">
+        <v>163</v>
+      </c>
+      <c r="N14" t="s">
         <v>166</v>
-      </c>
-      <c r="N14" t="s">
-        <v>169</v>
       </c>
       <c r="O14">
         <v>1185</v>
       </c>
       <c r="P14">
-        <v>37.581617</v>
+        <v>37.581617000000001</v>
       </c>
       <c r="Q14">
         <v>127.024879</v>
       </c>
       <c r="R14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="S14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="T14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="U14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="V14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="W14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Z14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AA14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AB14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AC14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AD14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AE14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AF14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AG14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AH14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AI14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AJ14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AK14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AL14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AM14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AN14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AO14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AP14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AQ14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AR14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AS14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AT14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AU14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AV14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AW14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AX14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AY14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AZ14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BA14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="BH14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="BI14" t="s">
+        <v>377</v>
+      </c>
+      <c r="BJ14" t="s">
         <v>380</v>
       </c>
-      <c r="BJ14" t="s">
-        <v>383</v>
-      </c>
       <c r="BK14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BL14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BM14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="BN14" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="BO14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="BP14" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="BQ14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BR14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BS14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="BT14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="BU14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="BV14" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="BW14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BX14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BY14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:77">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>98</v>
       </c>
@@ -3974,7 +4039,7 @@
         <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D15">
         <v>70</v>
@@ -3983,223 +4048,223 @@
         <v>2005.11</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O15">
         <v>11638</v>
       </c>
       <c r="P15">
-        <v>37.603941</v>
+        <v>37.603940999999999</v>
       </c>
       <c r="Q15">
         <v>127.010397</v>
       </c>
       <c r="R15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="T15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="U15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="V15" t="s">
+        <v>197</v>
+      </c>
+      <c r="W15" t="s">
+        <v>208</v>
+      </c>
+      <c r="X15" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>310</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>326</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>310</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>239</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>348</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>356</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>196</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>361</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>274</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>196</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>269</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>378</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>196</v>
+      </c>
+      <c r="BS15" t="s">
         <v>200</v>
       </c>
-      <c r="W15" t="s">
-        <v>211</v>
-      </c>
-      <c r="X15" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>279</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>288</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>199</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>242</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>303</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>313</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>196</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>200</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>329</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>313</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>196</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>198</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>200</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>242</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>351</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>359</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>196</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>197</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>199</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>364</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>277</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>381</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>196</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>197</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>388</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>272</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>381</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>196</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>197</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>199</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>203</v>
-      </c>
       <c r="BT15" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="BU15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="BV15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BW15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BX15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BY15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
-    <row r="16" spans="1:77">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>102</v>
       </c>
@@ -4207,7 +4272,7 @@
         <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D16">
         <v>30</v>
@@ -4216,205 +4281,206 @@
         <v>2010.03</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O16">
         <v>101365</v>
       </c>
       <c r="P16">
-        <v>37.601746</v>
+        <v>37.601745999999999</v>
       </c>
       <c r="Q16">
         <v>127.040278</v>
       </c>
       <c r="R16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="S16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="V16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="W16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="X16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Y16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Z16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AA16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AB16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AC16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AD16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AE16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AF16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AH16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AI16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AJ16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AK16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AL16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AM16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AN16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AO16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AP16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AQ16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AR16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AS16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AT16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AU16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AV16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AW16" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AX16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AY16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AZ16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BA16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="BH16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="BI16" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="BJ16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BK16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="BL16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BM16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="BN16" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="BO16" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="BP16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BQ16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BR16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BS16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="BT16" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="BU16" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="BV16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BW16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="BX16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BY16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>